--- a/35-db-benchmark-results/pivot_exploration.xlsx
+++ b/35-db-benchmark-results/pivot_exploration.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jorrit\Desktop\duckdb_bench\20-db-benchmark-results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\various\duckdb_bench\20-db-benchmark-results\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6299" uniqueCount="933">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6305" uniqueCount="933">
   <si>
     <t>nodename</t>
   </si>
@@ -3445,9 +3445,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>pivot_explore!$A$7:$A$18</c:f>
+              <c:f>pivot_explore!$A$7:$A$24</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="15"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>largest two v3 by id6</c:v>
@@ -3479,10 +3479,28 @@
                   <c:pt idx="9">
                     <c:v>sum v3 count by id1:id6</c:v>
                   </c:pt>
+                  <c:pt idx="10">
+                    <c:v>big inner on int</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>medium inner on factor</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>medium inner on int</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>medium outer on int</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>small inner on int</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>groupby</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>join</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -3490,39 +3508,51 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pivot_explore!$B$7:$B$18</c:f>
+              <c:f>pivot_explore!$B$7:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>13.4575</c:v>
+                  <c:v>4.0880000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.010999999999999</c:v>
+                  <c:v>4.0359999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.1734999999999998</c:v>
+                  <c:v>1.65</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.587499999999999</c:v>
+                  <c:v>4.3620000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.759499999999999</c:v>
+                  <c:v>3.3159999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.8330000000000002</c:v>
+                  <c:v>0.95199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.6020000000000003</c:v>
+                  <c:v>1.177</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.9435000000000002</c:v>
+                  <c:v>1.849</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.5605000000000002</c:v>
+                  <c:v>1.4870000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>31.839500000000001</c:v>
+                  <c:v>9.9580000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.6635</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.5190000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.2625000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.8929999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3559,9 +3589,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>pivot_explore!$A$7:$A$18</c:f>
+              <c:f>pivot_explore!$A$7:$A$24</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="15"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>largest two v3 by id6</c:v>
@@ -3593,10 +3623,28 @@
                   <c:pt idx="9">
                     <c:v>sum v3 count by id1:id6</c:v>
                   </c:pt>
+                  <c:pt idx="10">
+                    <c:v>big inner on int</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>medium inner on factor</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>medium inner on int</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>medium outer on int</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>small inner on int</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>groupby</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>join</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -3604,39 +3652,54 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pivot_explore!$C$7:$C$18</c:f>
+              <c:f>pivot_explore!$C$7:$C$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>15.568999999999999</c:v>
+                  <c:v>3.2759999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.4394999999999989</c:v>
+                  <c:v>2.2949999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.47199999999999998</c:v>
+                  <c:v>8.7999999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.6814999999999998</c:v>
+                  <c:v>0.94599999999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2265000000000001</c:v>
+                  <c:v>0.41399999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.30099999999999999</c:v>
+                  <c:v>4.3999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.54849999999999999</c:v>
+                  <c:v>0.188</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.839500000000001</c:v>
+                  <c:v>2.66</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.7675000000000001</c:v>
+                  <c:v>2.5830000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>387.14549999999997</c:v>
+                  <c:v>4.1909999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.2065000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.6815</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.5820000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.02</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.2930000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3656,7 +3719,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>polars</c:v>
+                  <c:v>pandas</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3673,9 +3736,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>pivot_explore!$A$7:$A$18</c:f>
+              <c:f>pivot_explore!$A$7:$A$24</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="15"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>largest two v3 by id6</c:v>
@@ -3707,10 +3770,28 @@
                   <c:pt idx="9">
                     <c:v>sum v3 count by id1:id6</c:v>
                   </c:pt>
+                  <c:pt idx="10">
+                    <c:v>big inner on int</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>medium inner on factor</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>medium inner on int</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>medium outer on int</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>small inner on int</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>groupby</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>join</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -3718,36 +3799,54 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pivot_explore!$D$7:$D$18</c:f>
+              <c:f>pivot_explore!$D$7:$D$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>15.964500000000001</c:v>
+                  <c:v>27.488</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.8479999999999999</c:v>
+                  <c:v>4.8019999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34.704000000000001</c:v>
+                  <c:v>1.4830000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.862</c:v>
+                  <c:v>4.8810000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.084499999999998</c:v>
+                  <c:v>12.069000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.582000000000001</c:v>
+                  <c:v>1.0389999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14.204499999999999</c:v>
+                  <c:v>3.218</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>33.912999999999997</c:v>
+                  <c:v>7.2789999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29.6935</c:v>
+                  <c:v>7.4020000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>68.382999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>58.076000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>89.365499999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.326000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.1935000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.0649999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3755,6 +3854,153 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000066-4A91-478E-8986-ADFB12C14E69}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>pivot_explore!$E$5:$E$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>polars</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>pivot_explore!$A$7:$A$24</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="15"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>largest two v3 by id6</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>max v1 - min v2 by id3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>mean v1:v3 by id4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>median v3 sd v3 by id4 id5</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>regression v1 v2 by id2 id4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>sum v1 by id1</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>sum v1 by id1:id2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>sum v1 mean v3 by id3</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>sum v1:v3 by id6</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>sum v3 count by id1:id6</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>big inner on int</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>medium inner on factor</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>medium inner on int</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>medium outer on int</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>small inner on int</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>groupby</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>join</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>pivot_explore!$E$7:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>4.3150000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0179999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.6440000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6179999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9609999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.4390000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.4980000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.1059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.66</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.406000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.163499999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1145</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.94100000000000006</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.62850000000000006</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.402000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1682-4D0A-88DA-901B3252AC9E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4518,16 +4764,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>185057</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>541020</xdr:colOff>
+      <xdr:colOff>954677</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:rowOff>13063</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8524,8 +8770,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A5:E18" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A5:E24" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0">
       <items count="4">
@@ -8590,7 +8836,7 @@
     <field x="0"/>
     <field x="3"/>
   </rowFields>
-  <rowItems count="12">
+  <rowItems count="18">
     <i>
       <x/>
     </i>
@@ -8624,6 +8870,24 @@
     <i r="1">
       <x v="14"/>
     </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -8639,15 +8903,15 @@
       <x v="1"/>
     </i>
     <i>
+      <x v="2"/>
+    </i>
+    <i>
       <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
     </i>
   </colItems>
   <pageFields count="2">
     <pageField fld="5" item="0" hier="-1"/>
-    <pageField fld="2" item="2" hier="-1"/>
+    <pageField fld="2" item="1" hier="-1"/>
   </pageFields>
   <dataFields count="1">
     <dataField name="Average of time_sec" fld="6" subtotal="average" baseField="4" baseItem="0"/>
@@ -48288,19 +48552,18 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A2:E18"/>
+  <dimension ref="A2:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.44140625" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="1" max="1" width="28.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5546875" customWidth="1"/>
     <col min="8" max="8" width="15.77734375" customWidth="1"/>
     <col min="9" max="9" width="20.44140625" customWidth="1"/>
@@ -48382,7 +48645,7 @@
         <v>455</v>
       </c>
       <c r="B3" s="3">
-        <v>300000000</v>
+        <v>100000000</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -48404,10 +48667,10 @@
         <v>19</v>
       </c>
       <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
         <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>930</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -48415,16 +48678,16 @@
         <v>10</v>
       </c>
       <c r="B7" s="5">
-        <v>11.376749999999999</v>
+        <v>3.2874999999999992</v>
       </c>
       <c r="C7" s="5">
-        <v>43.799050000000001</v>
+        <v>1.6684999999999999</v>
       </c>
       <c r="D7" s="5">
-        <v>19.428444444444445</v>
+        <v>13.804399999999998</v>
       </c>
       <c r="E7" s="5">
-        <v>25.055655172413793</v>
+        <v>5.8665000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -48432,16 +48695,16 @@
         <v>476</v>
       </c>
       <c r="B8" s="5">
-        <v>13.4575</v>
+        <v>4.0880000000000001</v>
       </c>
       <c r="C8" s="5">
-        <v>15.568999999999999</v>
+        <v>3.2759999999999998</v>
       </c>
       <c r="D8" s="5">
-        <v>15.964500000000001</v>
+        <v>27.488</v>
       </c>
       <c r="E8" s="5">
-        <v>14.997</v>
+        <v>4.3150000000000004</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -48449,16 +48712,16 @@
         <v>475</v>
       </c>
       <c r="B9" s="5">
-        <v>14.010999999999999</v>
+        <v>4.0359999999999996</v>
       </c>
       <c r="C9" s="5">
-        <v>9.4394999999999989</v>
+        <v>2.2949999999999999</v>
       </c>
       <c r="D9" s="5">
-        <v>7.8479999999999999</v>
+        <v>4.8019999999999996</v>
       </c>
       <c r="E9" s="5">
-        <v>10.432833333333333</v>
+        <v>2.0179999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -48466,16 +48729,16 @@
         <v>472</v>
       </c>
       <c r="B10" s="5">
-        <v>6.1734999999999998</v>
+        <v>1.65</v>
       </c>
       <c r="C10" s="5">
-        <v>0.47199999999999998</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="D10" s="5">
-        <v>34.704000000000001</v>
+        <v>1.4830000000000001</v>
       </c>
       <c r="E10" s="5">
-        <v>13.783166666666668</v>
+        <v>8.6440000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -48483,16 +48746,16 @@
         <v>474</v>
       </c>
       <c r="B11" s="5">
-        <v>14.587499999999999</v>
+        <v>4.3620000000000001</v>
       </c>
       <c r="C11" s="5">
-        <v>3.6814999999999998</v>
+        <v>0.94599999999999995</v>
       </c>
       <c r="D11" s="5">
-        <v>13.862</v>
+        <v>4.8810000000000002</v>
       </c>
       <c r="E11" s="5">
-        <v>10.710333333333333</v>
+        <v>3.6179999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -48500,16 +48763,16 @@
         <v>477</v>
       </c>
       <c r="B12" s="5">
-        <v>12.759499999999999</v>
+        <v>3.3159999999999998</v>
       </c>
       <c r="C12" s="5">
-        <v>1.2265000000000001</v>
+        <v>0.41399999999999998</v>
       </c>
       <c r="D12" s="5">
-        <v>13.084499999999998</v>
+        <v>12.069000000000001</v>
       </c>
       <c r="E12" s="5">
-        <v>9.0234999999999985</v>
+        <v>3.9609999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -48517,16 +48780,16 @@
         <v>468</v>
       </c>
       <c r="B13" s="5">
-        <v>3.8330000000000002</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="C13" s="5">
-        <v>0.30099999999999999</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="D13" s="5">
-        <v>11.582000000000001</v>
+        <v>1.0389999999999999</v>
       </c>
       <c r="E13" s="5">
-        <v>5.238666666666667</v>
+        <v>3.4390000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -48534,16 +48797,16 @@
         <v>470</v>
       </c>
       <c r="B14" s="5">
-        <v>4.6020000000000003</v>
+        <v>1.177</v>
       </c>
       <c r="C14" s="5">
-        <v>0.54849999999999999</v>
+        <v>0.188</v>
       </c>
       <c r="D14" s="5">
-        <v>14.204499999999999</v>
+        <v>3.218</v>
       </c>
       <c r="E14" s="5">
-        <v>6.4516666666666671</v>
+        <v>4.4980000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -48551,16 +48814,16 @@
         <v>471</v>
       </c>
       <c r="B15" s="5">
-        <v>5.9435000000000002</v>
+        <v>1.849</v>
       </c>
       <c r="C15" s="5">
-        <v>9.839500000000001</v>
+        <v>2.66</v>
       </c>
       <c r="D15" s="5">
-        <v>33.912999999999997</v>
+        <v>7.2789999999999999</v>
       </c>
       <c r="E15" s="5">
-        <v>16.565333333333331</v>
+        <v>9.1059999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -48568,16 +48831,16 @@
         <v>473</v>
       </c>
       <c r="B16" s="5">
-        <v>6.5605000000000002</v>
+        <v>1.4870000000000001</v>
       </c>
       <c r="C16" s="5">
-        <v>9.7675000000000001</v>
+        <v>2.5830000000000002</v>
       </c>
       <c r="D16" s="5">
-        <v>29.6935</v>
+        <v>7.4020000000000001</v>
       </c>
       <c r="E16" s="5">
-        <v>15.3405</v>
+        <v>7.66</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -48585,31 +48848,133 @@
         <v>478</v>
       </c>
       <c r="B17" s="5">
-        <v>31.839500000000001</v>
+        <v>9.9580000000000002</v>
       </c>
       <c r="C17" s="5">
-        <v>387.14549999999997</v>
-      </c>
-      <c r="D17" s="5"/>
+        <v>4.1909999999999998</v>
+      </c>
+      <c r="D17" s="5">
+        <v>68.382999999999996</v>
+      </c>
       <c r="E17" s="5">
-        <v>209.49250000000001</v>
+        <v>11.406000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="5">
+        <v>3.5845000000000002</v>
+      </c>
+      <c r="C18" s="5">
+        <v>2.7566000000000002</v>
+      </c>
+      <c r="D18" s="5">
+        <v>35.205199999999998</v>
+      </c>
+      <c r="E18" s="5">
+        <v>5.4498999999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5">
+        <v>7.2065000000000001</v>
+      </c>
+      <c r="D19" s="5">
+        <v>58.076000000000001</v>
+      </c>
+      <c r="E19" s="5">
+        <v>14.163499999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="B20" s="5">
+        <v>3.6635</v>
+      </c>
+      <c r="C20" s="5">
+        <v>1.6815</v>
+      </c>
+      <c r="D20" s="5">
+        <v>89.365499999999997</v>
+      </c>
+      <c r="E20" s="5">
+        <v>1.1145</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="B21" s="5">
+        <v>3.5190000000000001</v>
+      </c>
+      <c r="C21" s="5">
+        <v>1.5820000000000001</v>
+      </c>
+      <c r="D21" s="5">
+        <v>13.326000000000001</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0.94100000000000006</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="B22" s="5">
+        <v>4.2625000000000002</v>
+      </c>
+      <c r="C22" s="5">
+        <v>2.02</v>
+      </c>
+      <c r="D22" s="5">
+        <v>7.1935000000000002</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0.62850000000000006</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="B23" s="5">
+        <v>2.8929999999999998</v>
+      </c>
+      <c r="C23" s="5">
+        <v>1.2930000000000001</v>
+      </c>
+      <c r="D23" s="5">
+        <v>8.0649999999999995</v>
+      </c>
+      <c r="E23" s="5">
+        <v>10.402000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
         <v>930</v>
       </c>
-      <c r="B18" s="5">
-        <v>11.376749999999999</v>
-      </c>
-      <c r="C18" s="5">
-        <v>43.799050000000001</v>
-      </c>
-      <c r="D18" s="5">
-        <v>19.428444444444445</v>
-      </c>
-      <c r="E18" s="5">
-        <v>25.055655172413793</v>
+      <c r="B24" s="5">
+        <v>3.4195000000000002</v>
+      </c>
+      <c r="C24" s="5">
+        <v>2.2125500000000002</v>
+      </c>
+      <c r="D24" s="5">
+        <v>24.504799999999996</v>
+      </c>
+      <c r="E24" s="5">
+        <v>5.6582000000000008</v>
       </c>
     </row>
   </sheetData>
